--- a/data/trans_camb/P16A17-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A17-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,27</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; -0,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,6; 1,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; -0,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; -0,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,6; 1,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; -0,75</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 0,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 0,56</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 1,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 1,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 0,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 1,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 1,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 0,54</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>178,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>178,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,6%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 0,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 0,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; -0,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 0,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 0,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; -0,14</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,59%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,0; 124,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,15; 76,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,59; 0,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,0; 124,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,15; 76,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,59; 0,32</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 0,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 0,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 0,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 0,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 0,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 0,48</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,46%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,84%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,36; 154,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,11; 131,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,84; 115,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,36; 154,95</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,11; 131,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,84; 115,48</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 0,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 0,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 0,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 0,02</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,31%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,45%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,31%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,96; 68,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,32; 35,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,56; 12,14</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,96; 68,14</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,32; 35,9</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,56; 12,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A17-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; -0,75</t>
+          <t>-0,96; 0,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 1,37</t>
+          <t>-1,32; 0,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; -0,75</t>
+          <t>-1,2; 0,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; -0,75</t>
+          <t>-0,96; 0,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 1,37</t>
+          <t>-1,32; 0,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; -0,75</t>
+          <t>-1,2; 0,15</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-33,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-63,51%</t>
+          <t>-78,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-57,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-33,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-63,51%</t>
+          <t>-78,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-57,92%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,06</t>
+          <t>-0,13; 1,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,0</t>
+          <t>-0,06; 1,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,56</t>
+          <t>-0,32; 0,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,06</t>
+          <t>-0,13; 1,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,0</t>
+          <t>-0,06; 1,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,56</t>
+          <t>-0,32; 0,56</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>157,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>178,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>157,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>178,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>74,92%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,97</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,0</t>
+          <t>-1,74; 0,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,05</t>
+          <t>-1,72; 0,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,54</t>
+          <t>-2,0; -0,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,0</t>
+          <t>-1,74; 0,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,05</t>
+          <t>-1,72; 0,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,54</t>
+          <t>-2,0; -0,21</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>157,9%</t>
+          <t>-40,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>178,84%</t>
+          <t>-46,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,6%</t>
+          <t>-75,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>157,9%</t>
+          <t>-40,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>178,84%</t>
+          <t>-46,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>68,6%</t>
+          <t>-75,49%</t>
         </is>
       </c>
     </row>
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,0; 124,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,15; 76,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-95,66; -19,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,0; 124,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,15; 76,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-95,66; -19,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,19</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,61</t>
+          <t>-0,92; 0,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,34</t>
+          <t>-1,08; 0,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; -0,14</t>
+          <t>-0,93; 0,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,61</t>
+          <t>-0,92; 0,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,34</t>
+          <t>-1,08; 0,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; -0,14</t>
+          <t>-0,93; 0,42</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-40,96%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-46,58%</t>
+          <t>-37,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-71,59%</t>
+          <t>-22,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-40,96%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-46,58%</t>
+          <t>-37,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-71,59%</t>
+          <t>-22,87%</t>
         </is>
       </c>
     </row>
@@ -1454,39 +1454,39 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-90,0; 124,66</t>
+          <t>-76,36; 154,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-87,15; 76,82</t>
+          <t>-84,11; 131,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-92,59; 0,32</t>
+          <t>-70,64; 107,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-90,0; 124,66</t>
+          <t>-76,36; 154,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-87,15; 76,82</t>
+          <t>-84,11; 131,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-92,59; 0,32</t>
+          <t>-70,64; 107,69</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,57</t>
+          <t>-0,5; 0,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,42</t>
+          <t>-0,61; 0,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,48</t>
+          <t>-0,67; -0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,57</t>
+          <t>-0,5; 0,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,42</t>
+          <t>-0,61; 0,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,48</t>
+          <t>-0,67; -0,0</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-19,15%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-37,46%</t>
+          <t>-28,45%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-17,84%</t>
+          <t>-40,73%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-19,15%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-37,46%</t>
+          <t>-28,45%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-17,84%</t>
+          <t>-40,73%</t>
         </is>
       </c>
     </row>
@@ -1670,260 +1670,44 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-76,36; 154,95</t>
+          <t>-54,96; 68,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-84,11; 131,51</t>
+          <t>-63,32; 35,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,84; 115,48</t>
+          <t>-66,64; 4,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-76,36; 154,95</t>
+          <t>-54,96; 68,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-84,11; 131,51</t>
+          <t>-63,32; 35,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-69,84; 115,48</t>
+          <t>-66,64; 4,1</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 0,3</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 0,16</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 0,02</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 0,3</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 0,16</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 0,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-13,99%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-28,45%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-37,31%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-13,99%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-28,45%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-37,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-54,96; 68,14</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-63,32; 35,9</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-63,56; 12,14</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-54,96; 68,14</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-63,32; 35,9</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-63,56; 12,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A17-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Habitat-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,52</t>
+          <t>-0,95; 0,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,03</t>
+          <t>-1,28; 0,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,15</t>
+          <t>-1,23; 0,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,52</t>
+          <t>-0,95; 0,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,03</t>
+          <t>-1,28; 0,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,15</t>
+          <t>-1,23; 0,19</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 297,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 120,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 297,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 120,1</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,0</t>
+          <t>-0,14; 0,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,05</t>
+          <t>-0,11; 1,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,56</t>
+          <t>-0,33; 0,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,0</t>
+          <t>-0,14; 0,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,05</t>
+          <t>-0,11; 1,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,56</t>
+          <t>-0,33; 0,54</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,9; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>-91,71; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>-100,0; —</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,9; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-91,71; —</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,61</t>
+          <t>-1,68; 0,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,34</t>
+          <t>-1,73; 0,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; -0,21</t>
+          <t>-2,11; -0,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,61</t>
+          <t>-1,68; 0,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,34</t>
+          <t>-1,73; 0,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; -0,21</t>
+          <t>-2,11; -0,19</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-90,0; 124,66</t>
+          <t>-89,14; 125,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-87,15; 76,82</t>
+          <t>-88,27; 66,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-95,66; -19,29</t>
+          <t>-94,23; -7,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-90,0; 124,66</t>
+          <t>-89,14; 125,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-87,15; 76,82</t>
+          <t>-88,27; 66,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-95,66; -19,29</t>
+          <t>-94,23; -7,29</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,57</t>
+          <t>-1,0; 0,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,42</t>
+          <t>-1,04; 0,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,42</t>
+          <t>-0,97; 0,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,57</t>
+          <t>-1,0; 0,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,42</t>
+          <t>-1,04; 0,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,42</t>
+          <t>-0,97; 0,48</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-76,36; 154,95</t>
+          <t>-77,04; 140,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-84,11; 131,51</t>
+          <t>-83,4; 89,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,64; 107,69</t>
+          <t>-69,53; 129,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-76,36; 154,95</t>
+          <t>-77,04; 140,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-84,11; 131,51</t>
+          <t>-83,4; 89,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-70,64; 107,69</t>
+          <t>-69,53; 129,6</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,3</t>
+          <t>-0,49; 0,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,16</t>
+          <t>-0,6; 0,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; -0,0</t>
+          <t>-0,66; 0,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,3</t>
+          <t>-0,49; 0,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,16</t>
+          <t>-0,6; 0,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; -0,0</t>
+          <t>-0,66; 0,01</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 68,14</t>
+          <t>-52,21; 60,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 35,9</t>
+          <t>-63,95; 26,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-66,64; 4,1</t>
+          <t>-68,03; 5,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 68,14</t>
+          <t>-52,21; 60,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 35,9</t>
+          <t>-63,95; 26,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-66,64; 4,1</t>
+          <t>-68,03; 5,26</t>
         </is>
       </c>
     </row>
